--- a/biology/Médecine/Inhibiteur_de_la_polymérase_NS5B/Inhibiteur_de_la_polymérase_NS5B.xlsx
+++ b/biology/Médecine/Inhibiteur_de_la_polymérase_NS5B/Inhibiteur_de_la_polymérase_NS5B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_polym%C3%A9rase_NS5B</t>
+          <t>Inhibiteur_de_la_polymérase_NS5B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs de la polymérase NS5B sont des médicaments utilisés dans le traitement de l'hépatite C. Ils inhibent la polymérase du VHC. Ces médicaments sont disponibles à partir de 2014. On distingue les analogues nucléosidiques ou nucléotidiques comme le sofosbuvir et la méricitabine, et les inhibiteurs non analogues comme le dasabuvir, le lomibuvir, le sétrobuvir, le déléobuvir.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_polym%C3%A9rase_NS5B</t>
+          <t>Inhibiteur_de_la_polymérase_NS5B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Daniel Dhumeaux, Prise en charge des personnes infectées par les virus de l'hépatite B ou de l'hépatite C, rapport de recommandations 2014, 2014,  (ISBN 978-2-7598-1250-9) (lire en ligne), chapitre 9, « Conséquences cliniques et traitement de l'infection par le virus de l'hépatite C », partie « Traitement de l'hépatite chronique C », page 205
